--- a/biology/Histoire de la zoologie et de la botanique/Samuel_Hubbard_Scudder/Samuel_Hubbard_Scudder.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_Hubbard_Scudder/Samuel_Hubbard_Scudder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Hubbard Scudder est un entomologiste américain, né le 13 avril 1837 à Boston et mort le 17 mai 1911 à Cambridge (Massachusetts). Il est considéré comme l’un des meilleurs spécialistes des orthoptères.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’université d'Harvard où il suit les cours de Louis Agassiz (1807-1873). Il devient son assistant de 1862 à 1864. Il est conservateur à la Boston Society of Natural History de 1864 à 1870 ; il en sera le vice-président de 1874 à 1880 puis président jusqu’en 1887.
 Il obtient le poste d’assistant-bibliothécaire à l’université d’Harvard en 1879, fonction qu’il conserve 4 ans. De 1886 à 1892, il est paléontologue au bureau de recherche géologique fédéral.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) 1875 : Historical sketch of the generic names proposed for butterflies. Proceedings of the American Academy of Arts and Sciences, 10 : 91–293.</t>
         </is>
